--- a/aboutUs/組織/2024年度本部役員・支部長名簿.xlsx
+++ b/aboutUs/組織/2024年度本部役員・支部長名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiroyuki/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED97C181-B418-DA41-A85C-168D59C015C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C5A026-78EC-934F-860E-8FD51DC93AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4777D074-5001-D14A-8B83-18AFFC5FC41B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{4777D074-5001-D14A-8B83-18AFFC5FC41B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,139 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>組織</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>##</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>本部役員,支部長名簿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>###</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>顧　　　問</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>###</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>24・25（R6,R7）年度 役員</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFAA3731"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
   <si>
     <t xml:space="preserve">※地域防災拠点(避難所)数は、横浜市が公開している「横浜市防災計画 資料編」から引用しています </t>
   </si>
@@ -272,9 +140,6 @@
     <t>JG1BUF</t>
   </si>
   <si>
-    <t>広報担当、設備管理担当（副）[区役所局、市役所局]、</t>
-  </si>
-  <si>
     <t>市役所局ー区役所局間通信テスト担当（主）</t>
   </si>
   <si>
@@ -515,12 +380,105 @@
   <si>
     <t>地域防災拠点数</t>
   </si>
+  <si>
+    <r>
+      <t>###</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>役員</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>###</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>顧問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFAA3731"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JJ8XEO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>林 靖憲</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>広報担当、設備管理担当（副）[区役所局、市役所局]、</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設備管理担当（副）[区役所局、市役所局]</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>理事補</t>
+    <rPh sb="0" eb="3">
+      <t>リｊイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,6 +522,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFAA3731"/>
       <name val="MS Mincho"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1123,7 +1089,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1135,69 +1101,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
+      <c r="A4" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1205,17 +1182,17 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
+      <c r="A9" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1224,16 +1201,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -1241,17 +1218,17 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1259,17 +1236,17 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1277,99 +1254,99 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="D15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15" t="s">
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
+      <c r="A18" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1381,54 +1358,54 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4">
         <v>31</v>
@@ -1436,13 +1413,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -1450,13 +1427,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="4">
         <v>12</v>
@@ -1464,13 +1441,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4">
         <v>14</v>
@@ -1478,13 +1455,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4">
         <v>25</v>
@@ -1492,13 +1469,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4">
         <v>32</v>
@@ -1506,13 +1483,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4">
         <v>27</v>
@@ -1520,13 +1497,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4">
         <v>37</v>
@@ -1534,13 +1511,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4">
         <v>22</v>
@@ -1548,13 +1525,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4">
         <v>26</v>
@@ -1562,13 +1539,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4">
         <v>29</v>
@@ -1576,13 +1553,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4">
         <v>22</v>
@@ -1590,13 +1567,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4">
         <v>35</v>
@@ -1604,13 +1581,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D38" s="4">
         <v>15</v>
@@ -1618,13 +1595,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4">
         <v>20</v>
@@ -1632,13 +1609,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" s="4">
         <v>24</v>
@@ -1646,13 +1623,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D41" s="4">
         <v>41</v>
@@ -1660,13 +1637,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D42" s="4">
         <v>27</v>
@@ -1674,7 +1651,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
